--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P15NCD171 CLAVIJAS DISPENSADOR #1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P15NCD171 CLAVIJAS DISPENSADOR #1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F90601-26C2-4CDB-9C91-AFF0BF386088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{A371B8BD-7943-4554-B5F3-8DC45D24B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12765" yWindow="120" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLAVIJAS" sheetId="5" r:id="rId1"/>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -140,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>CANT.</t>
   </si>
@@ -353,6 +342,9 @@
   </si>
   <si>
     <t>N2306000620</t>
+  </si>
+  <si>
+    <t>N2306000619</t>
   </si>
 </sst>
 </file>
@@ -360,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -742,7 +734,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="82">
@@ -787,7 +779,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -863,7 +855,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,11 +886,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1335,7 +1327,7 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="79" zoomScaleNormal="79" zoomScaleSheetLayoutView="79" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1815,7 +1807,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="45">
         <f ca="1">NOW()</f>
-        <v>45393.602961689816</v>
+        <v>45397.828925925925</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
@@ -2102,8 +2094,8 @@
       <c r="A27" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="51">
-        <v>2306000619</v>
+      <c r="B27" s="51" t="s">
+        <v>71</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>39</v>

--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P15NCD171 CLAVIJAS DISPENSADOR #1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P15NCD171 CLAVIJAS DISPENSADOR #1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{A371B8BD-7943-4554-B5F3-8DC45D24B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A6E6B5-371E-4F14-A458-967F4A90CE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12765" yWindow="120" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1050" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLAVIJAS" sheetId="5" r:id="rId1"/>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="79" zoomScaleNormal="79" zoomScaleSheetLayoutView="79" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1807,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="45">
         <f ca="1">NOW()</f>
-        <v>45397.828925925925</v>
+        <v>45401.806220833336</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
